--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lamc2-Itgb4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lamc2-Itgb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Itgb4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.78413647797551</v>
+        <v>0.5957153333333333</v>
       </c>
       <c r="H2">
-        <v>3.78413647797551</v>
+        <v>1.787146</v>
       </c>
       <c r="I2">
-        <v>0.8608266738327722</v>
+        <v>0.108261553568735</v>
       </c>
       <c r="J2">
-        <v>0.8608266738327722</v>
+        <v>0.108261553568735</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.81998029462475</v>
+        <v>3.201463666666667</v>
       </c>
       <c r="N2">
-        <v>2.81998029462475</v>
+        <v>9.604391</v>
       </c>
       <c r="O2">
-        <v>0.2985960299542318</v>
+        <v>0.2283977768222221</v>
       </c>
       <c r="P2">
-        <v>0.2985960299542318</v>
+        <v>0.2283977768222221</v>
       </c>
       <c r="Q2">
-        <v>10.67119030006164</v>
+        <v>1.907160995342889</v>
       </c>
       <c r="R2">
-        <v>10.67119030006164</v>
+        <v>17.164448958086</v>
       </c>
       <c r="S2">
-        <v>0.2570394272851722</v>
+        <v>0.02472669815041898</v>
       </c>
       <c r="T2">
-        <v>0.2570394272851722</v>
+        <v>0.02472669815041898</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.78413647797551</v>
+        <v>0.5957153333333333</v>
       </c>
       <c r="H3">
-        <v>3.78413647797551</v>
+        <v>1.787146</v>
       </c>
       <c r="I3">
-        <v>0.8608266738327722</v>
+        <v>0.108261553568735</v>
       </c>
       <c r="J3">
-        <v>0.8608266738327722</v>
+        <v>0.108261553568735</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.72114161540321</v>
+        <v>2.758130333333333</v>
       </c>
       <c r="N3">
-        <v>2.72114161540321</v>
+        <v>8.274391</v>
       </c>
       <c r="O3">
-        <v>0.2881304117094069</v>
+        <v>0.1967696347387151</v>
       </c>
       <c r="P3">
-        <v>0.2881304117094069</v>
+        <v>0.1967696347387151</v>
       </c>
       <c r="Q3">
-        <v>10.29717124858449</v>
+        <v>1.643060530898444</v>
       </c>
       <c r="R3">
-        <v>10.29717124858449</v>
+        <v>14.787544778086</v>
       </c>
       <c r="S3">
-        <v>0.248030343941876</v>
+        <v>0.02130258635196583</v>
       </c>
       <c r="T3">
-        <v>0.248030343941876</v>
+        <v>0.02130258635196583</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.78413647797551</v>
+        <v>0.5957153333333333</v>
       </c>
       <c r="H4">
-        <v>3.78413647797551</v>
+        <v>1.787146</v>
       </c>
       <c r="I4">
-        <v>0.8608266738327722</v>
+        <v>0.108261553568735</v>
       </c>
       <c r="J4">
-        <v>0.8608266738327722</v>
+        <v>0.108261553568735</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.90300999975326</v>
+        <v>0.4432716666666667</v>
       </c>
       <c r="N4">
-        <v>3.90300999975326</v>
+        <v>1.329815</v>
       </c>
       <c r="O4">
-        <v>0.4132735583363613</v>
+        <v>0.0316237426802848</v>
       </c>
       <c r="P4">
-        <v>0.4132735583363613</v>
+        <v>0.03162374268028481</v>
       </c>
       <c r="Q4">
-        <v>14.7695225139695</v>
+        <v>0.2640637286655556</v>
       </c>
       <c r="R4">
-        <v>14.7695225139695</v>
+        <v>2.37657355799</v>
       </c>
       <c r="S4">
-        <v>0.3557569026057241</v>
+        <v>0.003423635512225544</v>
       </c>
       <c r="T4">
-        <v>0.3557569026057241</v>
+        <v>0.003423635512225545</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.611796632608645</v>
+        <v>0.5957153333333333</v>
       </c>
       <c r="H5">
-        <v>0.611796632608645</v>
+        <v>1.787146</v>
       </c>
       <c r="I5">
-        <v>0.1391733261672279</v>
+        <v>0.108261553568735</v>
       </c>
       <c r="J5">
-        <v>0.1391733261672279</v>
+        <v>0.108261553568735</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.81998029462475</v>
+        <v>7.614187000000001</v>
       </c>
       <c r="N5">
-        <v>2.81998029462475</v>
+        <v>22.842561</v>
       </c>
       <c r="O5">
-        <v>0.2985960299542318</v>
+        <v>0.5432088457587779</v>
       </c>
       <c r="P5">
-        <v>0.2985960299542318</v>
+        <v>0.543208845758778</v>
       </c>
       <c r="Q5">
-        <v>1.725254448274157</v>
+        <v>4.535887946767334</v>
       </c>
       <c r="R5">
-        <v>1.725254448274157</v>
+        <v>40.822991520906</v>
       </c>
       <c r="S5">
-        <v>0.04155660266905965</v>
+        <v>0.05880863355412464</v>
       </c>
       <c r="T5">
-        <v>0.04155660266905965</v>
+        <v>0.05880863355412465</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.611796632608645</v>
+        <v>4.233676</v>
       </c>
       <c r="H6">
-        <v>0.611796632608645</v>
+        <v>12.701028</v>
       </c>
       <c r="I6">
-        <v>0.1391733261672279</v>
+        <v>0.769401617551114</v>
       </c>
       <c r="J6">
-        <v>0.1391733261672279</v>
+        <v>0.7694016175511141</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.72114161540321</v>
+        <v>3.201463666666667</v>
       </c>
       <c r="N6">
-        <v>2.72114161540321</v>
+        <v>9.604391</v>
       </c>
       <c r="O6">
-        <v>0.2881304117094069</v>
+        <v>0.2283977768222221</v>
       </c>
       <c r="P6">
-        <v>0.2881304117094069</v>
+        <v>0.2283977768222221</v>
       </c>
       <c r="Q6">
-        <v>1.664785277154933</v>
+        <v>13.55395989043867</v>
       </c>
       <c r="R6">
-        <v>1.664785277154933</v>
+        <v>121.985639013948</v>
       </c>
       <c r="S6">
-        <v>0.04010006776753094</v>
+        <v>0.175729618932096</v>
       </c>
       <c r="T6">
-        <v>0.04010006776753094</v>
+        <v>0.175729618932096</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,681 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.611796632608645</v>
+        <v>4.233676</v>
       </c>
       <c r="H7">
-        <v>0.611796632608645</v>
+        <v>12.701028</v>
       </c>
       <c r="I7">
-        <v>0.1391733261672279</v>
+        <v>0.769401617551114</v>
       </c>
       <c r="J7">
-        <v>0.1391733261672279</v>
+        <v>0.7694016175511141</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.90300999975326</v>
+        <v>2.758130333333333</v>
       </c>
       <c r="N7">
-        <v>3.90300999975326</v>
+        <v>8.274391</v>
       </c>
       <c r="O7">
-        <v>0.4132735583363613</v>
+        <v>0.1967696347387151</v>
       </c>
       <c r="P7">
-        <v>0.4132735583363613</v>
+        <v>0.1967696347387151</v>
       </c>
       <c r="Q7">
-        <v>2.387848374886913</v>
+        <v>11.67703019710533</v>
       </c>
       <c r="R7">
-        <v>2.387848374886913</v>
+        <v>105.093271773948</v>
       </c>
       <c r="S7">
-        <v>0.05751665573063728</v>
+        <v>0.1513948752529093</v>
       </c>
       <c r="T7">
-        <v>0.05751665573063728</v>
+        <v>0.1513948752529093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.233676</v>
+      </c>
+      <c r="H8">
+        <v>12.701028</v>
+      </c>
+      <c r="I8">
+        <v>0.769401617551114</v>
+      </c>
+      <c r="J8">
+        <v>0.7694016175511141</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.4432716666666667</v>
+      </c>
+      <c r="N8">
+        <v>1.329815</v>
+      </c>
+      <c r="O8">
+        <v>0.0316237426802848</v>
+      </c>
+      <c r="P8">
+        <v>0.03162374268028481</v>
+      </c>
+      <c r="Q8">
+        <v>1.876668616646667</v>
+      </c>
+      <c r="R8">
+        <v>16.89001754982</v>
+      </c>
+      <c r="S8">
+        <v>0.02433135877123133</v>
+      </c>
+      <c r="T8">
+        <v>0.02433135877123134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.233676</v>
+      </c>
+      <c r="H9">
+        <v>12.701028</v>
+      </c>
+      <c r="I9">
+        <v>0.769401617551114</v>
+      </c>
+      <c r="J9">
+        <v>0.7694016175511141</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>7.614187000000001</v>
+      </c>
+      <c r="N9">
+        <v>22.842561</v>
+      </c>
+      <c r="O9">
+        <v>0.5432088457587779</v>
+      </c>
+      <c r="P9">
+        <v>0.543208845758778</v>
+      </c>
+      <c r="Q9">
+        <v>32.23600076141201</v>
+      </c>
+      <c r="R9">
+        <v>290.1240068527081</v>
+      </c>
+      <c r="S9">
+        <v>0.4179457645948774</v>
+      </c>
+      <c r="T9">
+        <v>0.4179457645948775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04891300000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.146739</v>
+      </c>
+      <c r="I10">
+        <v>0.008889140623722185</v>
+      </c>
+      <c r="J10">
+        <v>0.008889140623722185</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.201463666666667</v>
+      </c>
+      <c r="N10">
+        <v>9.604391</v>
+      </c>
+      <c r="O10">
+        <v>0.2283977768222221</v>
+      </c>
+      <c r="P10">
+        <v>0.2283977768222221</v>
+      </c>
+      <c r="Q10">
+        <v>0.1565931923276667</v>
+      </c>
+      <c r="R10">
+        <v>1.409338730949</v>
+      </c>
+      <c r="S10">
+        <v>0.002030259956318248</v>
+      </c>
+      <c r="T10">
+        <v>0.002030259956318248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04891300000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.146739</v>
+      </c>
+      <c r="I11">
+        <v>0.008889140623722185</v>
+      </c>
+      <c r="J11">
+        <v>0.008889140623722185</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.758130333333333</v>
+      </c>
+      <c r="N11">
+        <v>8.274391</v>
+      </c>
+      <c r="O11">
+        <v>0.1967696347387151</v>
+      </c>
+      <c r="P11">
+        <v>0.1967696347387151</v>
+      </c>
+      <c r="Q11">
+        <v>0.1349084289943333</v>
+      </c>
+      <c r="R11">
+        <v>1.214175860949</v>
+      </c>
+      <c r="S11">
+        <v>0.001749112953670889</v>
+      </c>
+      <c r="T11">
+        <v>0.001749112953670889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04891300000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.146739</v>
+      </c>
+      <c r="I12">
+        <v>0.008889140623722185</v>
+      </c>
+      <c r="J12">
+        <v>0.008889140623722185</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.4432716666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.329815</v>
+      </c>
+      <c r="O12">
+        <v>0.0316237426802848</v>
+      </c>
+      <c r="P12">
+        <v>0.03162374268028481</v>
+      </c>
+      <c r="Q12">
+        <v>0.02168174703166667</v>
+      </c>
+      <c r="R12">
+        <v>0.195135723285</v>
+      </c>
+      <c r="S12">
+        <v>0.0002811078957334568</v>
+      </c>
+      <c r="T12">
+        <v>0.0002811078957334568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04891300000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.146739</v>
+      </c>
+      <c r="I13">
+        <v>0.008889140623722185</v>
+      </c>
+      <c r="J13">
+        <v>0.008889140623722185</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.614187000000001</v>
+      </c>
+      <c r="N13">
+        <v>22.842561</v>
+      </c>
+      <c r="O13">
+        <v>0.5432088457587779</v>
+      </c>
+      <c r="P13">
+        <v>0.543208845758778</v>
+      </c>
+      <c r="Q13">
+        <v>0.3724327287310001</v>
+      </c>
+      <c r="R13">
+        <v>3.351894558579001</v>
+      </c>
+      <c r="S13">
+        <v>0.004828659817999592</v>
+      </c>
+      <c r="T13">
+        <v>0.004828659817999592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6242523333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.872757</v>
+      </c>
+      <c r="I14">
+        <v>0.1134476882564287</v>
+      </c>
+      <c r="J14">
+        <v>0.1134476882564287</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.201463666666667</v>
+      </c>
+      <c r="N14">
+        <v>9.604391</v>
+      </c>
+      <c r="O14">
+        <v>0.2283977768222221</v>
+      </c>
+      <c r="P14">
+        <v>0.2283977768222221</v>
+      </c>
+      <c r="Q14">
+        <v>1.998521163998555</v>
+      </c>
+      <c r="R14">
+        <v>17.986690475987</v>
+      </c>
+      <c r="S14">
+        <v>0.02591119978338882</v>
+      </c>
+      <c r="T14">
+        <v>0.02591119978338882</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6242523333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.872757</v>
+      </c>
+      <c r="I15">
+        <v>0.1134476882564287</v>
+      </c>
+      <c r="J15">
+        <v>0.1134476882564287</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.758130333333333</v>
+      </c>
+      <c r="N15">
+        <v>8.274391</v>
+      </c>
+      <c r="O15">
+        <v>0.1967696347387151</v>
+      </c>
+      <c r="P15">
+        <v>0.1967696347387151</v>
+      </c>
+      <c r="Q15">
+        <v>1.721769296220778</v>
+      </c>
+      <c r="R15">
+        <v>15.495923665987</v>
+      </c>
+      <c r="S15">
+        <v>0.02232306018016909</v>
+      </c>
+      <c r="T15">
+        <v>0.02232306018016909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6242523333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.872757</v>
+      </c>
+      <c r="I16">
+        <v>0.1134476882564287</v>
+      </c>
+      <c r="J16">
+        <v>0.1134476882564287</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.4432716666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.329815</v>
+      </c>
+      <c r="O16">
+        <v>0.0316237426802848</v>
+      </c>
+      <c r="P16">
+        <v>0.03162374268028481</v>
+      </c>
+      <c r="Q16">
+        <v>0.2767133722172222</v>
+      </c>
+      <c r="R16">
+        <v>2.490420349955</v>
+      </c>
+      <c r="S16">
+        <v>0.003587640501094468</v>
+      </c>
+      <c r="T16">
+        <v>0.003587640501094469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6242523333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.872757</v>
+      </c>
+      <c r="I17">
+        <v>0.1134476882564287</v>
+      </c>
+      <c r="J17">
+        <v>0.1134476882564287</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.614187000000001</v>
+      </c>
+      <c r="N17">
+        <v>22.842561</v>
+      </c>
+      <c r="O17">
+        <v>0.5432088457587779</v>
+      </c>
+      <c r="P17">
+        <v>0.543208845758778</v>
+      </c>
+      <c r="Q17">
+        <v>4.753174001186334</v>
+      </c>
+      <c r="R17">
+        <v>42.778566010677</v>
+      </c>
+      <c r="S17">
+        <v>0.06162578779177628</v>
+      </c>
+      <c r="T17">
+        <v>0.0616257877917763</v>
       </c>
     </row>
   </sheetData>
